--- a/app/templates/template.xlsx
+++ b/app/templates/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekot\Documents\GitHub\monoeditdoc\apps\server\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekot\Documents\GitHub\puna-generator-service\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ECC98B-3ED0-4605-811A-493A8D4CF4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8916222-7921-41E6-B999-971CE888655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B72C34E1-441B-43D8-BD23-78738A285E38}"/>
   </bookViews>
@@ -41,15 +41,6 @@
     <t>ใบกำกับการขนย้ายสินค้า</t>
   </si>
   <si>
-    <t>หมายเลขเอกสาร: {{doc_no}}</t>
-  </si>
-  <si>
-    <t>ชื่อลูกค้า: {{customer_name}}</t>
-  </si>
-  <si>
-    <t>วันที่ออกเอกสาร: {{issue_date}}</t>
-  </si>
-  <si>
     <t>ลำดับ</t>
   </si>
   <si>
@@ -62,9 +53,6 @@
     <t>ราคา</t>
   </si>
   <si>
-    <t>{{goog[0].no}}</t>
-  </si>
-  <si>
     <t>{{goog[0].name}}</t>
   </si>
   <si>
@@ -72,6 +60,18 @@
   </si>
   <si>
     <t>{{goog[0].price}}</t>
+  </si>
+  <si>
+    <t>วันที่ออกเอกสาร: {{issue_date}}ฃ</t>
+  </si>
+  <si>
+    <t>ชื่อลูกค้า: {{customer_name}} {issue_date}} {{style|w|hr}}</t>
+  </si>
+  <si>
+    <t>หมายเลขเอกสาร: {{doc_no}} {{style|b|hl|#ff0000}}</t>
+  </si>
+  <si>
+    <t>{{goog[0].no}} {{style|b|hc|#ff0000}}</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" activeCellId="1" sqref="E8 E14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -472,45 +472,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/app/templates/template.xlsx
+++ b/app/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekot\Documents\GitHub\puna-generator-service\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8916222-7921-41E6-B999-971CE888655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470D48C-262A-4458-BD34-E4DC55CBF719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B72C34E1-441B-43D8-BD23-78738A285E38}"/>
   </bookViews>
@@ -62,16 +62,16 @@
     <t>{{goog[0].price}}</t>
   </si>
   <si>
-    <t>วันที่ออกเอกสาร: {{issue_date}}ฃ</t>
-  </si>
-  <si>
-    <t>ชื่อลูกค้า: {{customer_name}} {issue_date}} {{style|w|hr}}</t>
-  </si>
-  <si>
     <t>หมายเลขเอกสาร: {{doc_no}} {{style|b|hl|#ff0000}}</t>
   </si>
   <si>
     <t>{{goog[0].no}} {{style|b|hc|#ff0000}}</t>
+  </si>
+  <si>
+    <t>ชื่อลูกค้า: {{customer_name}} {{issue_date}} {{style||hl}}</t>
+  </si>
+  <si>
+    <t>วันที่ออกเอกสาร: {{issue_date}}ฃ {{ style | b | hl | #FF0000 }}</t>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -472,17 +472,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>

--- a/app/templates/template.xlsx
+++ b/app/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekot\Documents\GitHub\puna-generator-service\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9470D48C-262A-4458-BD34-E4DC55CBF719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E91B8-6CCC-4E18-ADAE-ECBB19CD348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B72C34E1-441B-43D8-BD23-78738A285E38}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ใบกำกับการขนย้ายสินค้า</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>วันที่ออกเอกสาร: {{issue_date}}ฃ {{ style | b | hl | #FF0000 }}</t>
+  </si>
+  <si>
+    <t>รวม</t>
+  </si>
+  <si>
+    <t>{{ fx|sum|goog[0].qty|goog[0].price|as:goog[0].total }}</t>
+  </si>
+  <si>
+    <t>{{ fx|if|goog[0].total|&gt; |0|"มียอด"|"ไม่มี"|as:status[0] }}</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,9 +129,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -451,41 +467,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12570CCE-852E-44C3-8AC2-5F7DF634C2BC}">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
     <col min="2" max="2" width="20.59765625" customWidth="1"/>
     <col min="3" max="3" width="25.8984375" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" customWidth="1"/>
     <col min="5" max="5" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,8 +515,11 @@
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -511,6 +531,12 @@
       </c>
       <c r="E8" t="s">
         <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/app/templates/template.xlsx
+++ b/app/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekot\Documents\GitHub\puna-generator-service\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6E91B8-6CCC-4E18-ADAE-ECBB19CD348E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49463B7-E3FA-4E4F-BBA6-9C8DB305E168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B72C34E1-441B-43D8-BD23-78738A285E38}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>{{goog[0].qty}}</t>
   </si>
   <si>
-    <t>{{goog[0].price}}</t>
-  </si>
-  <si>
     <t>หมายเลขเอกสาร: {{doc_no}} {{style|b|hl|#ff0000}}</t>
   </si>
   <si>
@@ -77,10 +74,13 @@
     <t>รวม</t>
   </si>
   <si>
-    <t>{{ fx|sum|goog[0].qty|goog[0].price|as:goog[0].total }}</t>
-  </si>
-  <si>
     <t>{{ fx|if|goog[0].total|&gt; |0|"มียอด"|"ไม่มี"|as:status[0] }}</t>
+  </si>
+  <si>
+    <t>{{goog[0].price}} {{style|u|hr|#00ff00}}</t>
+  </si>
+  <si>
+    <t>{{ fx|sum|goog[0].qty|goog[0].price|as:goog[0].total }} {{style|i|hr|#ffff00}}</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,17 +489,17 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -516,12 +516,12 @@
         <v>4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -530,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/app/templates/template.xlsx
+++ b/app/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekot\Documents\GitHub\puna-generator-service\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49463B7-E3FA-4E4F-BBA6-9C8DB305E168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBEDF72-8721-4CC0-BFF1-070AB47E9691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B72C34E1-441B-43D8-BD23-78738A285E38}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>{{goog[0].price}} {{style|u|hr|#00ff00}}</t>
   </si>
   <si>
-    <t>{{ fx|sum|goog[0].qty|goog[0].price|as:goog[0].total }} {{style|i|hr|#ffff00}}</t>
+    <t>{{ fx|sum|goog[0].qty|goog[0].price|as:goog[0].total }} {{style|i|hr|#ff0000}}</t>
   </si>
 </sst>
 </file>
